--- a/boards/Cells-TestBoard/Cells-TestBoard.xlsx
+++ b/boards/Cells-TestBoard/Cells-TestBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\IdeaProjects\RV74\boards\Cells-TestBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718CA375-73F4-41C2-926E-C1B9EC9A6901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8C3B9F-7461-4491-9806-F57EE15FCA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{740CEE11-9300-4486-8006-20DA1990275F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
   <si>
     <t>pins</t>
   </si>
@@ -45,36 +45,12 @@
     <t>sites</t>
   </si>
   <si>
-    <t>AOI22</t>
-  </si>
-  <si>
-    <t>DECAP</t>
-  </si>
-  <si>
     <t>MOSFET</t>
   </si>
   <si>
-    <t>NOR4</t>
-  </si>
-  <si>
     <t>TINV</t>
   </si>
   <si>
-    <t>AOI21</t>
-  </si>
-  <si>
-    <t>OAI21</t>
-  </si>
-  <si>
-    <t>OAI22</t>
-  </si>
-  <si>
-    <t>AOI211</t>
-  </si>
-  <si>
-    <t>OAI211</t>
-  </si>
-  <si>
     <t>D_LATCH</t>
   </si>
   <si>
@@ -157,6 +133,78 @@
   </si>
   <si>
     <t>NAND4_1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>DECAP_10</t>
+  </si>
+  <si>
+    <t>DECAP_11</t>
+  </si>
+  <si>
+    <t>DECAP_LED_12</t>
+  </si>
+  <si>
+    <t>DECAP_13</t>
+  </si>
+  <si>
+    <t>DECAP_14</t>
+  </si>
+  <si>
+    <t>DECAP_15</t>
+  </si>
+  <si>
+    <t>DECAP_16</t>
+  </si>
+  <si>
+    <t>DECAP_17</t>
+  </si>
+  <si>
+    <t>Row 1</t>
+  </si>
+  <si>
+    <t>Row 2</t>
+  </si>
+  <si>
+    <t>TINV_1</t>
+  </si>
+  <si>
+    <t>TINV_2</t>
+  </si>
+  <si>
+    <t>TINV_3</t>
+  </si>
+  <si>
+    <t>TINV_4</t>
+  </si>
+  <si>
+    <t>AOI21_1</t>
+  </si>
+  <si>
+    <t>OAI21_1</t>
+  </si>
+  <si>
+    <t>AOI22_1</t>
+  </si>
+  <si>
+    <t>OAI22_1</t>
+  </si>
+  <si>
+    <t>AOI211_1</t>
+  </si>
+  <si>
+    <t>OAI211_1</t>
+  </si>
+  <si>
+    <t>NOR4_1</t>
+  </si>
+  <si>
+    <t>DECAP_18</t>
+  </si>
+  <si>
+    <t>DECAP_LED_19</t>
   </si>
 </sst>
 </file>
@@ -528,19 +576,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C586500-7740-4158-9C19-92222C1FCA3B}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -548,40 +599,52 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
+      <c r="Q1" t="s">
+        <v>0</v>
       </c>
       <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>SUM(B3:B1012)</f>
         <v>80</v>
@@ -594,46 +657,46 @@
         <f>SUM(D3:D1012)</f>
         <v>70</v>
       </c>
-      <c r="H2">
-        <f>SUM(H3:H1013)</f>
-        <v>80</v>
-      </c>
       <c r="I2">
         <f>SUM(I3:I1013)</f>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <f>SUM(J3:J1013)</f>
+        <v>53</v>
+      </c>
+      <c r="K2">
+        <f>SUM(K3:K1013)</f>
         <v>58</v>
       </c>
-      <c r="M2">
-        <f>SUM(M3:M1012)</f>
+      <c r="P2">
+        <f>SUM(O3:O1012)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(P3:P1012)</f>
         <v>80</v>
       </c>
-      <c r="N2">
-        <f>SUM(N3:N1012)</f>
+      <c r="R2">
+        <f>SUM(Q3:Q1012)</f>
         <v>60</v>
       </c>
-      <c r="O2">
-        <f>SUM(O3:O1012)</f>
-        <v>56</v>
-      </c>
-      <c r="R2">
-        <f>SUM(R3:R1012)</f>
+      <c r="U2">
+        <f>SUM(T3:T1012)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>SUM(U3:U1012)</f>
         <v>80</v>
       </c>
-      <c r="S2">
-        <f>SUM(S3:S1012)</f>
+      <c r="W2">
+        <f>SUM(V3:V1012)</f>
         <v>60</v>
       </c>
-      <c r="T2">
-        <f>SUM(T3:T1012)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -645,264 +708,321 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>5</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
       </c>
       <c r="R3">
         <v>10</v>
       </c>
-      <c r="S3">
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>E3+B3</f>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <f>F3+C3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>L3+I3</f>
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <f>M3+J3</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E28" si="0">E4+B4</f>
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <f>F4+C4</f>
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L27" si="1">L4+I4</f>
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <f>E3+C3</f>
+      <c r="M5">
+        <f>M4+J4</f>
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f>F5+C5</f>
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f>E4+C4</f>
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <f>M5+J5</f>
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f>E5+C5</f>
+      <c r="F7">
+        <f>F6+C6</f>
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <f>M6+J6</f>
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <f>E6+C6</f>
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>12</v>
       </c>
       <c r="R7">
         <v>10</v>
       </c>
-      <c r="S7">
+      <c r="T7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -914,157 +1034,193 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E7+C7</f>
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <f>F7+C7</f>
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <f>M7+J7</f>
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f>F8+C8</f>
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <f>M8+J8</f>
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <f>F9+C9</f>
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f>E8+C8</f>
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9">
-        <v>4</v>
-      </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f>E9+C9</f>
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>6</v>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>6</v>
+        <f>M9+J9</f>
+        <v>19</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>4</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1076,103 +1232,127 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E10+C10</f>
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <f>F10+C10</f>
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>12</v>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="M11">
+        <f>M10+J10</f>
+        <v>23</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>5</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>12</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
-      <c r="S11">
+      <c r="T11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
         <v>5</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <f>F11+C11</f>
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M12">
+        <f>M11+J11</f>
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <f>E11+C11</f>
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>13</v>
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1184,49 +1364,61 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <f>E12+C12</f>
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <f>F12+C12</f>
         <v>18</v>
       </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
-        <v>6</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>6</v>
+        <f>M12+J12</f>
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1238,49 +1430,61 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <f>E13+C13</f>
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <f>F13+C13</f>
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
         <v>8</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>8</v>
       </c>
-      <c r="L14" t="s">
-        <v>6</v>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>6</v>
+        <f>M13+J13</f>
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>4</v>
-      </c>
-      <c r="S14">
-        <v>4</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1292,49 +1496,61 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <f>E14+C14</f>
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <f>F14+C14</f>
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
-        <v>12</v>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="M15">
+        <f>M14+J14</f>
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>5</v>
-      </c>
-      <c r="O15">
-        <v>10</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>12</v>
       </c>
       <c r="R15">
         <v>10</v>
       </c>
-      <c r="S15">
+      <c r="T15" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
         <v>5</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1346,49 +1562,61 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <f>E15+C15</f>
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <f>F15+C15</f>
         <v>24</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16">
         <v>8</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>8</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>13</v>
+        <f>M15+J15</f>
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1400,133 +1628,169 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>E16+C16</f>
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <f>F16+C16</f>
         <v>27</v>
       </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>6</v>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>4</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>6</v>
+        <f>M16+J16</f>
+        <v>37</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>4</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <f>F17+C17</f>
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="M18">
+        <f>M17+J17</f>
+        <v>37</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F19">
+        <f>F18+C18</f>
         <v>30</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <f>E17+C17</f>
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-      <c r="L18" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18">
-        <v>4</v>
-      </c>
-      <c r="S18">
-        <v>4</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <f>E18+C18</f>
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="M19">
+        <f>M18+J18</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1538,25 +1802,37 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f>E19+C19</f>
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <f>F19+C19</f>
         <v>33</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <f>M19+J19</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1568,25 +1844,37 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <f>E20+C20</f>
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <f>F20+C20</f>
         <v>33</v>
       </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="M21">
+        <f>M20+J20</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1598,25 +1886,37 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <f>E21+C21</f>
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <f>F21+C21</f>
         <v>37</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
+      <c r="K22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M22">
+        <f>M21+J21</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1628,25 +1928,37 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f>E22+C22</f>
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <f>F22+C22</f>
         <v>41</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
+      <c r="H23" t="s">
+        <v>55</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="M23">
+        <f>M22+J22</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1658,13 +1970,25 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <f>E23+C23</f>
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <f>F23+C23</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M24">
+        <f>M23+J23</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -1676,13 +2000,25 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <f>E24+C24</f>
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F25">
+        <f>F24+C24</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M25">
+        <f>M24+J24</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1694,13 +2030,25 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f>E25+C25</f>
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <f>F25+C25</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M26">
+        <f>M25+J25</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -1712,13 +2060,33 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <f>E26+C26</f>
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="F27">
+        <f>F26+C26</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="M27">
+        <f>M26+J26</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E28">
-        <f>E27+C27</f>
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <f>F27+C27</f>
+        <v>54</v>
+      </c>
+      <c r="M28">
+        <f>M27+J27</f>
         <v>54</v>
       </c>
     </row>
@@ -1730,14 +2098,247 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A06860A-D914-4DC0-B259-25E9B3627477}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>